--- a/ESPN sports website/IPL/Delhi Capitals/Mitchell Marsh.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/Mitchell Marsh.xlsx
@@ -550,31 +550,31 @@
         <v>Mitchell Marsh</v>
       </c>
       <c r="C5" t="str">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>125.00</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>May 08, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Kings won by 91 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Mitchell Marsh</v>
       </c>
       <c r="C6" t="str">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="str">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E6" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>185.71</v>
+        <v>125.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>April 28, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Super Kings won by 91 runs</v>
       </c>
     </row>
     <row r="7">
@@ -655,31 +655,31 @@
         <v>Mitchell Marsh</v>
       </c>
       <c r="C8" t="str">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>0.00</v>
+        <v>185.71</v>
       </c>
       <c r="H8" t="str">
-        <v>Mumbai Indians</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J8" t="str">
-        <v>May 21, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="9">
